--- a/stupkt/miniRV-1指令总表.xlsx
+++ b/stupkt/miniRV-1指令总表.xlsx
@@ -10,16 +10,11 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="174">
   <si>
     <t>BIT#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1723,6 +1718,84 @@
       <t xml:space="preserve"> (PC) + sext(imm[31:12] &lt;&lt; 12)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbu</t>
+  </si>
+  <si>
+    <t>imm[11:0]</t>
+  </si>
+  <si>
+    <t>rs1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>0000011</t>
+  </si>
+  <si>
+    <t>lbu rd, offset(rs1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(rd) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Mem[(rs1) + sext(offset)][7:0]</t>
+    </r>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>lhu rd, offset(rs2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(rd) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Mem[(rs1) + sext(offset)][15:0]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1903,7 +1976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1933,6 +2006,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1948,18 +2033,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1969,9 +2050,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2264,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J45"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2283,31 +2361,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="20" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14" t="s">
         <v>75</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -2336,7 +2414,7 @@
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7" t="s">
         <v>135</v>
       </c>
@@ -2660,10 +2738,10 @@
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2683,10 +2761,10 @@
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2710,10 +2788,10 @@
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2737,10 +2815,10 @@
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2764,10 +2842,10 @@
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2878,10 +2956,10 @@
       <c r="B24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
@@ -2905,10 +2983,10 @@
       <c r="B25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
@@ -2932,10 +3010,10 @@
       <c r="B26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
@@ -2955,230 +3033,230 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="14.5">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:10" ht="14.5" customHeight="1">
+      <c r="B27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="14.5">
+      <c r="B28" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="14.5">
-      <c r="B28" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="14.5">
+      <c r="B29" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="14.5">
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="14.5">
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="2:10" ht="14.5">
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="3" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="5" t="s">
+    <row r="32" spans="2:10">
+      <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" ht="14.5">
-      <c r="B31" s="10" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.5">
+      <c r="B33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="14.5">
-      <c r="B32" s="10" t="s">
+    <row r="34" spans="2:10" ht="14.5">
+      <c r="B34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" ht="14.5">
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="2:10" ht="14.5">
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
@@ -3187,53 +3265,49 @@
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="14.5">
-      <c r="B36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="H36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" ht="14.5">
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>56</v>
@@ -3245,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>57</v>
@@ -3254,73 +3328,73 @@
         <v>69</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="14.5">
+      <c r="B38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="14.5">
+      <c r="B39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="14.5">
-      <c r="B38" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="14.5">
-      <c r="B39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="14.5">
       <c r="B40" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>56</v>
@@ -3332,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>57</v>
@@ -3341,126 +3415,187 @@
         <v>69</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="14.5">
+      <c r="B41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="14.5">
+      <c r="B42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J42" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="5" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="5" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" ht="14.5">
-      <c r="B42" s="3" t="s">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" ht="14.5">
+      <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C44" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="3" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="14.5">
-      <c r="B43" s="12" t="s">
+    <row r="45" spans="2:10" ht="14.5">
+      <c r="B45" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C45" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="12" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="5" t="s">
+    <row r="46" spans="2:10">
+      <c r="B46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="5" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:10" ht="14.5">
-      <c r="B45" s="3" t="s">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.5">
+      <c r="B47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="3" t="s">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I3:I4"/>
+  <mergeCells count="21">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C3:H3"/>
@@ -3468,13 +3603,12 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
